--- a/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>014613710139870</v>
+        <v>014613710139878</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,89 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>3</v>
+      </c>
+      <c r="C14" t="str">
+        <v>688_山归来橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>324_小手球_Spiraea flower double petals_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>592_进口春兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +667,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>014613710139878</v>
+        <v>0146137101398786310151510155100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="C20" t="str">
-        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
       </c>
       <c r="F20" t="str">
         <v>10</v>

--- a/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
@@ -606,6 +606,9 @@
       <c r="C21" t="str">
         <v>411_紫罗兰白_violet white_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -667,7 +670,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0146137101398786310151510155100</v>
+        <v>0146137101398786310151510155101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -607,12 +607,94 @@
         <v>411_紫罗兰白_violet white_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>4</v>
+      </c>
+      <c r="C23" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F25" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>630_吸色康乃馨天蓝_tinted tiffany blue_undefined_20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>842_蝴蝶洋牡丹鲑鱼粉_undefined_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -670,7 +752,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0146137101398786310151510155101</v>
+        <v>0146137101398786310151510155101051010155510750</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
@@ -691,6 +691,9 @@
       <c r="C31" t="str">
         <v>842_蝴蝶洋牡丹鲑鱼粉_undefined_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -752,7 +755,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0146137101398786310151510155101051010155510750</v>
+        <v>0146137101398786310151510155101051010155510755</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -695,9 +695,93 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>820_蝴蝶洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>753_蝴蝶洋牡丹黄_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>615_康乃馨野马_horse_undefined_20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>605_康乃馨流光粉_light pink_undefined_20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>5</v>
+      </c>
+      <c r="C38" t="str" xml:space="preserve">
+        <v xml:space="preserve">373_龙柳_Salix
+_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>6</v>
+      </c>
+      <c r="C39" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>682_锦鲤粉_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -755,7 +839,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0146137101398786310151510155101051010155510755</v>
+        <v>01461371013987863101515101551010510101555107555551010151510100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
@@ -778,6 +778,9 @@
       <c r="C41" t="str">
         <v>682_锦鲤粉_undefined_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -839,7 +842,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01461371013987863101515101551010510101555107555551010151510100</v>
+        <v>014613710139878631015151015510105101015551075555510101515101010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -782,9 +782,90 @@
         <v>10</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>683_锦鲤红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>681_锦鲤橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>7</v>
+      </c>
+      <c r="C44" t="str">
+        <v>546_非洲菊绿宝石_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>612_康乃馨古巴爱情_cuba love_undefined_20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="C46" t="str" xml:space="preserve">
+        <v xml:space="preserve">386_菟葵绿粉 
+green_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>611_康乃馨奶油白_cream white_undefined_20stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>43_拉丝红_Spider Red_Gerbera L._20stems</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -842,7 +923,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>014613710139878631015151015510105101015551075555510101515101010</v>
+        <v>0146137101398786310151510155101051010155510755555101015151010105555810510100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen 195_2025-12-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -862,10 +862,37 @@
       <c r="C51" t="str">
         <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
       </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>846_玛格丽特_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>846_玛格丽特_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L54"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -923,7 +950,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0146137101398786310151510155101051010155510755555101015151010105555810510100</v>
+        <v>014613710139878631015151015510105101015551075555510101515101010555581051010108105</v>
       </c>
     </row>
   </sheetData>
